--- a/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41113E5-3F64-462F-AC53-30FCD16842A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57AAEA-583E-4D34-BB8C-F28C0D7277CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="26">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -212,6 +212,20 @@
     <t>健康管理アプリ</t>
     <rPh sb="0" eb="4">
       <t>ケンコウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>安藤健太</t>
+    <rPh sb="0" eb="4">
+      <t>アンドウケンタ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>管理者閲覧ページ</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャエツラン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4474,71 +4488,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>98051</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130547</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>98050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>168087</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FBDEDE-E61D-4185-BFDE-9B8A5DD47855}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2059080" y="2091576"/>
-          <a:ext cx="7283823" cy="429746"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>さん　健康状態</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>112058</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4600,23 +4549,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>84044</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28014</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>84043</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42021</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E88C68-D15D-427D-BBBE-04B6B965F462}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF5CAB0-CE95-4BC8-A03C-842C3BD15886}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4624,8 +4573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2045073" y="2717427"/>
-          <a:ext cx="7283823" cy="429746"/>
+          <a:off x="1428749" y="2157133"/>
+          <a:ext cx="2535331" cy="1470772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4633,30 +4582,148 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
-            <a:t>A</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>健康</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>70037</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>84045</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76DF9F7-DE6A-4380-91B8-D45DA843DE68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552390" y="2157133"/>
+          <a:ext cx="2535331" cy="1470772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>さん　健康状態</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>普通</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>182096</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B6F7DF-1862-4276-9021-A452CE4F1957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7732059" y="2143125"/>
+          <a:ext cx="2535331" cy="1470772"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
+            <a:t>不健康</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -37352,7 +37419,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37378,7 +37445,9 @@
       </c>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>25</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -37391,7 +37460,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>24</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -37426,7 +37497,9 @@
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
+      <c r="N2" s="46" t="s">
+        <v>23</v>
+      </c>
       <c r="O2" s="46"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
@@ -37439,7 +37512,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="51">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>

--- a/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E57AAEA-583E-4D34-BB8C-F28C0D7277CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF4AB0-41E2-43C5-9B2F-B23229260301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,7 +237,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -278,6 +278,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -602,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -744,6 +750,9 @@
     </xf>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2488,8 +2497,8 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>122465</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2505,7 +2514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1537608" y="1906604"/>
-          <a:ext cx="7402286" cy="3930861"/>
+          <a:ext cx="7402286" cy="4175789"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2530,10 +2539,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>カレンダー</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2542,15 +2548,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122465</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2565,7 +2571,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2449286" y="6164036"/>
+          <a:off x="2490107" y="6408965"/>
           <a:ext cx="1387929" cy="421821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2602,16 +2608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2626,7 +2632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4299857" y="6177642"/>
+          <a:off x="4367893" y="6422571"/>
           <a:ext cx="1728107" cy="421821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2663,16 +2669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>163284</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27212</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>258534</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>122462</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2687,7 +2693,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6422570" y="6191250"/>
+          <a:off x="6558641" y="6422572"/>
           <a:ext cx="1728107" cy="421821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2724,14 +2730,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>54430</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>81642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -2748,7 +2754,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2721430" y="1034142"/>
+          <a:off x="3048001" y="1034142"/>
           <a:ext cx="4653642" cy="775607"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2778,6 +2784,425 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
             <a:t>健康管理アプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8402300C-FC01-4FBE-9EFA-38AF28A3830D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="1211036"/>
+          <a:ext cx="979714" cy="435428"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent2"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796D2E93-E90F-4EF9-B812-889B5A6308F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9266465" y="1143000"/>
+          <a:ext cx="1156607" cy="449036"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DD5038-4BCE-4C93-B02A-77945D98A0FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4803322" y="1932215"/>
+          <a:ext cx="816428" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870F0436-BBA1-4197-BAEE-CB3BEF35BF1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1959429" y="2898321"/>
+          <a:ext cx="6721928" cy="2735036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C6C665-1FF7-4323-B1DA-1C7C8BD7BC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2422071" y="2013857"/>
+          <a:ext cx="1741715" cy="802822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57530023-8E36-425A-A884-1ADF9BDCDEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6531429" y="2000249"/>
+          <a:ext cx="1877785" cy="802821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4489,15 +4914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>84046</xdr:rowOff>
+      <xdr:colOff>126066</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>140076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>28016</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>14009</xdr:rowOff>
+      <xdr:colOff>42024</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14008</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4512,8 +4937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4594411" y="1260664"/>
-          <a:ext cx="2157134" cy="518271"/>
+          <a:off x="4608419" y="1120591"/>
+          <a:ext cx="2157134" cy="854446"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4534,13 +4959,21 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-            <a:t>管理者画面</a:t>
+            <a:t>〇〇〇〇〇</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>（名前）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4549,23 +4982,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>42021</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>196102</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF5CAB0-CE95-4BC8-A03C-842C3BD15886}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6D1103-855D-4153-979C-BFB94E93FE44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4573,8 +5006,359 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1428749" y="2157133"/>
-          <a:ext cx="2535331" cy="1470772"/>
+          <a:off x="4790514" y="5560920"/>
+          <a:ext cx="1568823" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップページに戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266139</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266139</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A46C83F-1EB8-463C-A46B-905686313930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067610" y="2507317"/>
+          <a:ext cx="2521323" cy="2899522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154081</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4A8DB1-C87D-4BD5-B233-C4A5E1E228D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3613897" y="2101103"/>
+          <a:ext cx="1582831" cy="350184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>質問内容</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>210111</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>140075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266140</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F0063C-FEA3-4ED1-90C1-34C4ADB84908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6373346" y="2101104"/>
+          <a:ext cx="896470" cy="336176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回答</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>182095</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>182096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F4773F-DEA9-4BDD-9544-0B03F764C6D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6345330" y="2535331"/>
+          <a:ext cx="994522" cy="2871507"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>154081</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>70037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF57176E-98B8-4A9D-A7F4-396F9A3C8DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2381250" y="5897095"/>
+          <a:ext cx="6457390" cy="448236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4600,8 +5384,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
-            <a:t>健康</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>受講者コメント</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4610,23 +5394,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>70037</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>140073</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>182096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>84045</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>98052</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>154080</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42023</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76DF9F7-DE6A-4380-91B8-D45DA843DE68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B67C11E-BCF3-4D48-8C2B-C73A378C4985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,8 +5418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552390" y="2157133"/>
-          <a:ext cx="2535331" cy="1470772"/>
+          <a:off x="2381249" y="6653493"/>
+          <a:ext cx="6457390" cy="448236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4661,69 +5445,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
-            <a:t>普通</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182096</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>182096</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3B6F7DF-1862-4276-9021-A452CE4F1957}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7732059" y="2143125"/>
-          <a:ext cx="2535331" cy="1470772"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800" b="1"/>
-            <a:t>不健康</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>管理者コメント</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18923,7 +19646,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37419,7 +38142,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AG14" sqref="AG14"/>
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38062,7 +38785,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="R16" s="52"/>
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>

--- a/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BF4AB0-41E2-43C5-9B2F-B23229260301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F59F39-4541-4FE5-9ADC-0C90852BD17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6300" yWindow="3795" windowWidth="13035" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -4937,8 +4937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4608419" y="1120591"/>
-          <a:ext cx="2157134" cy="854446"/>
+          <a:off x="4480352" y="1092576"/>
+          <a:ext cx="2093101" cy="826432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4983,15 +4983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>28014</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>70038</xdr:rowOff>
+      <xdr:colOff>82442</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>196102</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>250530</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3202</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5006,8 +5006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4790514" y="5560920"/>
-          <a:ext cx="1568823" cy="238124"/>
+          <a:off x="4708871" y="5676181"/>
+          <a:ext cx="1528802" cy="232521"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5052,16 +5052,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266139</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
+      <xdr:rowOff>167688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266139</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>102853</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5076,8 +5076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067610" y="2507317"/>
-          <a:ext cx="2521323" cy="2899522"/>
+          <a:off x="2190750" y="2453688"/>
+          <a:ext cx="4171389" cy="2267991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5111,8 +5111,55 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>身体面に関する診断の質問内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>精神面に関する診断の質問内容</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5120,13 +5167,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>252132</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>140074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>154081</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>98052</xdr:rowOff>
@@ -5144,8 +5191,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3613897" y="2101103"/>
-          <a:ext cx="1582831" cy="350184"/>
+          <a:off x="3789989" y="2045074"/>
+          <a:ext cx="1534806" cy="338978"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5195,14 +5242,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>210111</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74040</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>140075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>266140</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>130068</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84045</xdr:rowOff>
     </xdr:to>
@@ -5219,8 +5266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6373346" y="2101104"/>
-          <a:ext cx="896470" cy="336176"/>
+          <a:off x="6877611" y="2045075"/>
+          <a:ext cx="872457" cy="324970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5265,16 +5312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>182095</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46025</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>182096</xdr:rowOff>
+      <xdr:rowOff>141275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>192100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5289,8 +5336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6345330" y="2535331"/>
-          <a:ext cx="994522" cy="2871507"/>
+          <a:off x="6849596" y="2427275"/>
+          <a:ext cx="962504" cy="2294404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5321,11 +5368,104 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>か</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>回</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>答</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5335,14 +5475,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>140074</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>14007</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>154081</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>110858</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5357,8 +5497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="5897095"/>
-          <a:ext cx="6457390" cy="448236"/>
+          <a:off x="2317217" y="5960328"/>
+          <a:ext cx="6273293" cy="437030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5385,7 +5525,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>受講者コメント</a:t>
+            <a:t>受講者コメント閲覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5397,13 +5537,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>140073</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>182096</xdr:rowOff>
+      <xdr:rowOff>182095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>154080</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>42023</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>70036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5418,8 +5558,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381249" y="6653493"/>
-          <a:ext cx="6457390" cy="448236"/>
+          <a:off x="2317216" y="6468595"/>
+          <a:ext cx="6273293" cy="649941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5445,8 +5585,87 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>管理者コメント</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>管理者コメント書き込み</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形: 角を丸くする 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FACC34-DC39-4EB0-BB10-DA6E0C3F88A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3156857" y="4857750"/>
+          <a:ext cx="4476750" cy="775607"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>診断結果：～～～～～～～～。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -38141,8 +38360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6274767A-B029-4429-8F06-6DEAA49A3002}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F59F39-4541-4FE5-9ADC-0C90852BD17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF81E1-0B8C-4CDF-9797-ED83E766735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6300" yWindow="3795" windowWidth="13035" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6300" yWindow="3795" windowWidth="13035" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -2927,16 +2927,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2951,7 +2951,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4803322" y="1932215"/>
+          <a:off x="4912179" y="1959429"/>
           <a:ext cx="816428" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2992,16 +2992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3016,8 +3016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1959429" y="2898321"/>
-          <a:ext cx="6721928" cy="2735036"/>
+          <a:off x="1850572" y="2898321"/>
+          <a:ext cx="6817178" cy="3061608"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3056,15 +3056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:colOff>149679</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
+      <xdr:colOff>163286</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3079,8 +3079,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2422071" y="2013857"/>
-          <a:ext cx="1741715" cy="802822"/>
+          <a:off x="2326822" y="2027464"/>
+          <a:ext cx="1918607" cy="802822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3133,16 +3133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>122463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>244928</xdr:colOff>
+      <xdr:colOff>204108</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>136070</xdr:rowOff>
+      <xdr:rowOff>163284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3157,8 +3157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6531429" y="2000249"/>
-          <a:ext cx="1877785" cy="802821"/>
+          <a:off x="6272894" y="2027463"/>
+          <a:ext cx="2095500" cy="802821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19864,7 +19864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1258A757-5A8D-47BD-95B2-8D716EB91CB9}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
@@ -38360,7 +38360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6274767A-B029-4429-8F06-6DEAA49A3002}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>

--- a/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCF81E1-0B8C-4CDF-9797-ED83E766735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE76A28-AD40-4EAC-B7A9-5DFE2DBA5583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6300" yWindow="3795" windowWidth="13035" windowHeight="7875" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6300" yWindow="3795" windowWidth="13035" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -5076,8 +5076,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2190750" y="2453688"/>
-          <a:ext cx="4171389" cy="2267991"/>
+          <a:off x="2223407" y="2453688"/>
+          <a:ext cx="4232621" cy="2267991"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5118,7 +5118,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>身体面に関する診断の質問内容</a:t>
+            <a:t>●身体面に関する診断の質問内容</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -5158,7 +5158,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>精神面に関する診断の質問内容</a:t>
+            <a:t>●精神面に関する診断の質問内容</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5202,7 +5202,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5275,6 +5275,11 @@
         <a:solidFill>
           <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5525,7 +5530,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>受講者コメント閲覧</a:t>
+            <a:t>受講者コメント（閲覧のみ）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5590,7 +5595,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>管理者コメント書き込み</a:t>
+            <a:t>管理者コメント</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:solidFill>
@@ -5666,6 +5671,160 @@
               </a:solidFill>
             </a:rPr>
             <a:t>診断結果：～～～～～～～～。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204108</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="四角形: 角を丸くする 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA2E311D-EEAB-4C2C-B8D1-2B12E9F2121F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="653143" y="1129393"/>
+          <a:ext cx="1455965" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>閲覧者ページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>216352</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>121102</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17689</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1AB43F-D97D-4F67-8C8F-5FC9ECCFDB3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8503102" y="6494689"/>
+          <a:ext cx="180975" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>書き込む</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -19864,7 +20023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1258A757-5A8D-47BD-95B2-8D716EB91CB9}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
@@ -38360,8 +38519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6274767A-B029-4429-8F06-6DEAA49A3002}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF13" sqref="AE13:AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
+++ b/documnets/外部設計書_ヨッシーアイランド （安藤）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C-3\documnets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE76A28-AD40-4EAC-B7A9-5DFE2DBA5583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B15DCD-2E7A-42DB-BD87-216961C5C504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6300" yWindow="3795" windowWidth="13035" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -2579,17 +2579,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2598,7 +2598,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>診断</a:t>
           </a:r>
         </a:p>
@@ -2640,17 +2656,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2659,7 +2675,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>診断結果</a:t>
           </a:r>
         </a:p>
@@ -2701,17 +2733,17 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2720,7 +2752,23 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>コメント</a:t>
           </a:r>
         </a:p>
@@ -2884,27 +2932,19 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2914,9 +2954,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>ログアウト</a:t>
           </a:r>
@@ -2928,15 +2980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>13608</xdr:colOff>
+      <xdr:colOff>54429</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2951,7 +3003,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4912179" y="1959429"/>
+          <a:off x="4953000" y="1973036"/>
           <a:ext cx="816428" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2960,13 +3012,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -2978,11 +3030,43 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>8</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800" dir="13500000">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>月</a:t>
           </a:r>
         </a:p>
@@ -4945,13 +5029,13 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -4964,15 +5048,54 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>〇〇〇〇〇</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="8100000" algn="tr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>（名前）</a:t>
           </a:r>
         </a:p>
@@ -5012,24 +5135,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5082,29 +5200,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5114,51 +5223,343 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>●身体面に関する診断の質問内容</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>●精神面に関する診断の質問内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>・</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5229,9 +5630,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>質問内容</a:t>
           </a:r>
@@ -5304,9 +5717,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="18900000" algn="bl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>回答</a:t>
           </a:r>
@@ -5347,29 +5772,20 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
+        <a:fillRef idx="2">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5378,10 +5794,22 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>1</a:t>
           </a:r>
@@ -5389,42 +5817,102 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>か</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>か</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            </a:ln>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>ら</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>ら</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            </a:ln>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>5</a:t>
           </a:r>
@@ -5432,42 +5920,102 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>で</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>で</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            </a:ln>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>回</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" cap="none" spc="0">
+            <a:ln w="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>回</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+            </a:ln>
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="0" cap="none" spc="0">
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </a:rPr>
             <a:t>答</a:t>
           </a:r>
@@ -5510,13 +6058,13 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -5571,13 +6119,13 @@
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
+        <a:lnRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
+        <a:effectRef idx="1">
           <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -5640,20 +6188,23 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -5709,31 +6260,20 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5786,28 +6326,17 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -5826,6 +6355,129 @@
             </a:rPr>
             <a:t>書き込む</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矢印: 上 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE80466C-FABA-4E5D-B69C-98C6E2B48310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="6448425"/>
+          <a:ext cx="266700" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E390B8-C291-48BA-B1B3-3E25D2C38383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="6886575"/>
+          <a:ext cx="1171576" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>画面上部に戻る</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20023,8 +20675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1258A757-5A8D-47BD-95B2-8D716EB91CB9}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38519,8 +39171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6274767A-B029-4429-8F06-6DEAA49A3002}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AE13:AF13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
